--- a/Entrega2/Implementacion/data/Fechas/Creacion Desempenos.xlsx
+++ b/Entrega2/Implementacion/data/Fechas/Creacion Desempenos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGM\Documents\DPOO\Proyecto2\Entrega2\Implementacion\data\Fechas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20724E67-250C-40A4-8B63-8256E224139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979E3636-7C7E-4561-A320-60EA024CB0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71D3E19B-8206-45F0-A1F1-228E369CD3EC}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
-  <si>
-    <t>NombreJugador, Posicion, MinutosJugados, MinutoIngreso, MinutoSustitucion, GolesAnotados, PenaltisAnotados, PenaltisErrados, Autogoles, Asistencias, TarjetasAmarillas, TarjetasRojas, GolesRecibidos, PenaltisDetenidos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>NombreJugador</t>
   </si>
@@ -285,6 +282,12 @@
   </si>
   <si>
     <t>Salah</t>
+  </si>
+  <si>
+    <t>Capitan</t>
+  </si>
+  <si>
+    <t>NombreJugador, Posicion, MinutosJugados, MinutoIngreso, MinutoSustitucion, GolesAnotados, PenaltisAnotados, PenaltisErrados, Autogoles, Asistencias, TarjetasAmarillas, TarjetasRojas, GolesRecibidos, PenaltisDetenidos,Capitan</t>
   </si>
 </sst>
 </file>
@@ -636,9 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C13CDB3-CB4B-45D4-9818-CB0EB68F318F}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N15" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37:Q52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -658,68 +663,71 @@
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,A1:O1)</f>
+        <v>NombreJugador, Posicion, MinutosJugados, MinutoIngreso, MinutoSustitucion, GolesAnotados, PenaltisAnotados, PenaltisErrados, Autogoles, Asistencias, TarjetasAmarillas, TarjetasRojas, GolesRecibidos, PenaltisDetenidos,Capitan</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="str">
-        <f t="shared" ref="P1:P3" si="0">_xlfn.TEXTJOIN(",",FALSE,A1:N1)</f>
-        <v>NombreJugador, Posicion, MinutosJugados, MinutoIngreso, MinutoSustitucion, GolesAnotados, PenaltisAnotados, PenaltisErrados, Autogoles, Asistencias, TarjetasAmarillas, TarjetasRojas, GolesRecibidos, PenaltisDetenidos</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4">
         <v>90</v>
@@ -757,65 +765,71 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" ref="P4:P18" si="1">_xlfn.TEXTJOIN(",",FALSE,A4:N4)</f>
-        <v>Ramsdale, portero,90,0,90,0,0,0,0,0,0,0,2,1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q18" si="0">_xlfn.TEXTJOIN(",",FALSE,A4:O4)</f>
+        <v>Ramsdale, portero,90,0,90,0,0,0,0,0,0,0,2,1,0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>Turner, portero,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="1"/>
-        <v>Turner, portero,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6">
         <v>90</v>
@@ -853,17 +867,20 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="1"/>
-        <v>Saliba, defensa,90,0,90,0,0,0,0,0,0,1,2,0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saliba, defensa,90,0,90,0,0,0,0,0,0,1,2,0,0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>90</v>
@@ -901,161 +918,173 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" si="1"/>
-        <v>White, defensa,90,0,90,0,0,0,0,0,1,0,2,0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>White, defensa,90,0,90,0,0,0,0,0,1,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>Holding, defensa,90,0,90,0,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>90</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="1"/>
-        <v>Holding, defensa,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>Tierney, defensa,90,0,90,0,0,0,0,0,0,0,2,0,1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>90</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>90</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="1"/>
-        <v>Tierney, defensa,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>Zinchenko, defensa,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="1"/>
-        <v>Zinchenko, defensa,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
       </c>
       <c r="C11">
         <v>90</v>
@@ -1093,17 +1122,20 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" si="1"/>
-        <v>Partey, mediocampista,90,0,90,1,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>Partey, mediocampista,90,0,90,1,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>90</v>
@@ -1141,65 +1173,71 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="P12" t="str">
-        <f t="shared" si="1"/>
-        <v>Xhaka, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>Xhaka, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>Lokonga, mediocampista,90,0,90,0,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>90</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="1"/>
-        <v>Lokonga, mediocampista,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1237,65 +1275,71 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" si="1"/>
-        <v>Saka, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>Saka, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>Odegaard, mediocampista,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="1"/>
-        <v>Odegaard, mediocampista,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
       <c r="C16">
         <v>90</v>
@@ -1333,17 +1377,20 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="P16" t="str">
-        <f t="shared" si="1"/>
-        <v>Jesus, delantero,90,0,90,1,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>Jesus, delantero,90,0,90,1,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>90</v>
@@ -1381,73 +1428,79 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" si="1"/>
-        <v>Martinelli, delantero,90,0,90,0,0,1,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>Martinelli, delantero,90,0,90,0,0,1,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="0"/>
+        <v>Marquinhos, delantero,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="1"/>
-        <v>Marquinhos, delantero,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1485,65 +1538,71 @@
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="P21" t="str">
-        <f t="shared" ref="P21:P35" si="2">_xlfn.TEXTJOIN(",",FALSE,A21:N21)</f>
-        <v>Mendy, portero,90,0,90,0,0,0,0,0,0,0,2,1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" ref="Q21:Q35" si="1">_xlfn.TEXTJOIN(",",FALSE,A21:O21)</f>
+        <v>Mendy, portero,90,0,90,0,0,0,0,0,0,0,2,1,0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="1"/>
+        <v>Kepa, portero,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="2"/>
-        <v>Kepa, portero,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>90</v>
@@ -1581,17 +1640,20 @@
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="P23" t="str">
-        <f t="shared" si="2"/>
-        <v>Fofana, defensa,90,0,90,0,0,0,0,0,0,1,2,0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="1"/>
+        <v>Fofana, defensa,90,0,90,0,0,0,0,0,0,1,2,0,0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>90</v>
@@ -1629,161 +1691,173 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="P24" t="str">
-        <f t="shared" si="2"/>
-        <v>Cucurella, defensa,90,0,90,0,0,0,0,0,1,0,2,0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="1"/>
+        <v>Cucurella, defensa,90,0,90,0,0,0,0,0,1,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>90</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="1"/>
+        <v>Silva, defensa,90,0,90,0,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>90</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>90</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="2"/>
-        <v>Silva, defensa,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="1"/>
+        <v>James, defensa,90,0,90,0,0,0,0,0,0,0,2,0,1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>90</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>90</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="2"/>
-        <v>James, defensa,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="1"/>
+        <v>Koulibaly, defensa,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="2"/>
-        <v>Koulibaly, defensa,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>90</v>
@@ -1821,17 +1895,20 @@
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="P28" t="str">
-        <f t="shared" si="2"/>
-        <v>Jorginho, mediocampista,90,0,90,1,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="1"/>
+        <v>Jorginho, mediocampista,90,0,90,1,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>90</v>
@@ -1869,65 +1946,71 @@
       <c r="N29">
         <v>0</v>
       </c>
-      <c r="P29" t="str">
-        <f t="shared" si="2"/>
-        <v>Kante, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="1"/>
+        <v>Kante, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>90</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="1"/>
+        <v>Kovacic, mediocampista,90,0,90,0,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>90</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="2"/>
-        <v>Kovacic, mediocampista,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>90</v>
@@ -1965,65 +2048,71 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="P31" t="str">
-        <f t="shared" si="2"/>
-        <v>Mount, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="1"/>
+        <v>Mount, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="1"/>
+        <v>Havertz, mediocampista,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="2"/>
-        <v>Havertz, mediocampista,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -2061,17 +2150,20 @@
       <c r="N33">
         <v>0</v>
       </c>
-      <c r="P33" t="str">
-        <f t="shared" si="2"/>
-        <v>Aubameyang, delantero,90,0,90,1,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="1"/>
+        <v>Aubameyang, delantero,90,0,90,1,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>90</v>
@@ -2109,17 +2201,20 @@
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="P34" t="str">
-        <f t="shared" si="2"/>
-        <v>Pulisic, delantero,90,0,90,0,0,1,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="1"/>
+        <v>Pulisic, delantero,90,0,90,0,0,1,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2157,25 +2252,28 @@
       <c r="N35">
         <v>0</v>
       </c>
-      <c r="P35" t="str">
-        <f t="shared" si="2"/>
-        <v>Sterling, delantero,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="1"/>
+        <v>Sterling, delantero,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="P37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>90</v>
@@ -2213,65 +2311,71 @@
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="P38" t="str">
-        <f t="shared" ref="P38:P52" si="3">_xlfn.TEXTJOIN(",",FALSE,A38:N38)</f>
-        <v>Meslier, portero,90,0,90,0,0,0,0,0,0,0,2,1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" ref="Q38:Q52" si="2">_xlfn.TEXTJOIN(",",FALSE,A38:O38)</f>
+        <v>Meslier, portero,90,0,90,0,0,0,0,0,0,0,2,1,0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="2"/>
+        <v>Klaesson, portero,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="3"/>
-        <v>Klaesson, portero,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>90</v>
@@ -2309,17 +2413,20 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="P40" t="str">
-        <f t="shared" si="3"/>
-        <v>Koch, defensa,90,0,90,0,0,0,0,0,0,1,2,0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="2"/>
+        <v>Koch, defensa,90,0,90,0,0,0,0,0,0,1,2,0,0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>90</v>
@@ -2357,161 +2464,173 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="P41" t="str">
-        <f t="shared" si="3"/>
-        <v>Llorente, defensa,90,0,90,0,0,0,0,0,1,0,2,0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="2"/>
+        <v>Llorente, defensa,90,0,90,0,0,0,0,0,1,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>90</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="2"/>
+        <v>Firpo, defensa,90,0,90,0,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>56</v>
       </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42">
-        <v>90</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>90</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="3"/>
-        <v>Firpo, defensa,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>90</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>90</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="2"/>
+        <v>Cooper, defensa,90,0,90,0,0,0,0,0,0,0,2,0,1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>57</v>
       </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>90</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>90</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="3"/>
-        <v>Cooper, defensa,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="2"/>
+        <v>Klich, defensa,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>58</v>
       </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="3"/>
-        <v>Klich, defensa,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>90</v>
@@ -2549,17 +2668,20 @@
       <c r="N45">
         <v>0</v>
       </c>
-      <c r="P45" t="str">
-        <f t="shared" si="3"/>
-        <v>Greenwood, mediocampista,90,0,90,1,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="2"/>
+        <v>Greenwood, mediocampista,90,0,90,1,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>90</v>
@@ -2597,65 +2719,71 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="P46" t="str">
-        <f t="shared" si="3"/>
-        <v>Aaronson, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="2"/>
+        <v>Aaronson, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>90</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="2"/>
+        <v>Forshaw, mediocampista,90,0,90,0,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>61</v>
       </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47">
-        <v>90</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>90</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="3"/>
-        <v>Forshaw, mediocampista,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>90</v>
@@ -2693,65 +2821,71 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="P48" t="str">
-        <f t="shared" si="3"/>
-        <v>Harrison, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="2"/>
+        <v>Harrison, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="2"/>
+        <v>Gnonto, mediocampista,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>63</v>
       </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" si="3"/>
-        <v>Gnonto, mediocampista,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50">
         <v>90</v>
@@ -2789,17 +2923,20 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="P50" t="str">
-        <f t="shared" si="3"/>
-        <v>Rodrigo, delantero,90,0,90,1,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="2"/>
+        <v>Rodrigo, delantero,90,0,90,1,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>90</v>
@@ -2837,73 +2974,79 @@
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="P51" t="str">
-        <f t="shared" si="3"/>
-        <v>Sinisterra, delantero,90,0,90,0,0,1,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="2"/>
+        <v>Sinisterra, delantero,90,0,90,0,0,1,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="2"/>
+        <v>Bamford, delantero,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>66</v>
       </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="str">
-        <f t="shared" si="3"/>
-        <v>Bamford, delantero,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="Q54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="P54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>68</v>
-      </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>90</v>
@@ -2941,65 +3084,71 @@
       <c r="N55">
         <v>1</v>
       </c>
-      <c r="P55" t="str">
-        <f t="shared" ref="P55:P69" si="4">_xlfn.TEXTJOIN(",",FALSE,A55:N55)</f>
-        <v>Alisson, portero,90,0,90,0,0,0,0,0,0,0,2,1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55:Q69" si="3">_xlfn.TEXTJOIN(",",FALSE,A55:O55)</f>
+        <v>Alisson, portero,90,0,90,0,0,0,0,0,0,0,2,1,0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="3"/>
+        <v>Adrian, portero,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>69</v>
       </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="str">
-        <f t="shared" si="4"/>
-        <v>Adrian, portero,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>70</v>
-      </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>90</v>
@@ -3037,17 +3186,20 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="P57" t="str">
-        <f t="shared" si="4"/>
-        <v>Virgil, defensa,90,0,90,0,0,0,0,0,0,1,2,0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="3"/>
+        <v>Virgil, defensa,90,0,90,0,0,0,0,0,0,1,2,0,0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>90</v>
@@ -3085,161 +3237,173 @@
       <c r="N58">
         <v>0</v>
       </c>
-      <c r="P58" t="str">
-        <f t="shared" si="4"/>
-        <v>Gomez, defensa,90,0,90,0,0,0,0,0,1,0,2,0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="3"/>
+        <v>Gomez, defensa,90,0,90,0,0,0,0,0,1,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>90</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="3"/>
+        <v>Matip, defensa,90,0,90,0,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>72</v>
       </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59">
-        <v>90</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>90</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="str">
-        <f t="shared" si="4"/>
-        <v>Matip, defensa,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>90</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>90</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="3"/>
+        <v>Arnold, defensa,90,0,90,0,0,0,0,0,0,0,2,0,1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>73</v>
       </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60">
-        <v>90</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>90</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="str">
-        <f t="shared" si="4"/>
-        <v>Arnold, defensa,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="3"/>
+        <v>Robertson, defensa,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>74</v>
       </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="str">
-        <f t="shared" si="4"/>
-        <v>Robertson, defensa,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>75</v>
-      </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>90</v>
@@ -3277,17 +3441,20 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="P62" t="str">
-        <f t="shared" si="4"/>
-        <v>Fabinho, mediocampista,90,0,90,1,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="3"/>
+        <v>Fabinho, mediocampista,90,0,90,1,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>90</v>
@@ -3325,65 +3492,71 @@
       <c r="N63">
         <v>0</v>
       </c>
-      <c r="P63" t="str">
-        <f t="shared" si="4"/>
-        <v>Keita, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="3"/>
+        <v>Keita, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>90</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>90</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="3"/>
+        <v>Arthur, mediocampista,90,0,90,0,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>77</v>
       </c>
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64">
-        <v>90</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>90</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="str">
-        <f t="shared" si="4"/>
-        <v>Arthur, mediocampista,90,0,90,0,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>78</v>
-      </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65">
         <v>90</v>
@@ -3421,65 +3594,71 @@
       <c r="N65">
         <v>0</v>
       </c>
-      <c r="P65" t="str">
-        <f t="shared" si="4"/>
-        <v>Thiago, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="3"/>
+        <v>Thiago, mediocampista,90,0,90,0,0,0,0,1,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="3"/>
+        <v>Milner, mediocampista,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>79</v>
       </c>
-      <c r="B66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="str">
-        <f t="shared" si="4"/>
-        <v>Milner, mediocampista,0,0,0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>80</v>
-      </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C67">
         <v>90</v>
@@ -3517,17 +3696,20 @@
       <c r="N67">
         <v>0</v>
       </c>
-      <c r="P67" t="str">
-        <f t="shared" si="4"/>
-        <v>Diaz, delantero,90,0,90,1,0,0,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="3"/>
+        <v>Diaz, delantero,90,0,90,1,0,0,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68">
         <v>90</v>
@@ -3565,17 +3747,20 @@
       <c r="N68">
         <v>0</v>
       </c>
-      <c r="P68" t="str">
-        <f t="shared" si="4"/>
-        <v>Jota, delantero,90,0,90,0,0,1,0,0,0,0,2,0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="3"/>
+        <v>Jota, delantero,90,0,90,0,0,1,0,0,0,0,2,0,0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3613,9 +3798,12 @@
       <c r="N69">
         <v>0</v>
       </c>
-      <c r="P69" t="str">
-        <f t="shared" si="4"/>
-        <v>Salah, delantero,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="3"/>
+        <v>Salah, delantero,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
   </sheetData>
